--- a/T04_M4_D3_support_files/T04_M4_D3_By_County.xlsx
+++ b/T04_M4_D3_support_files/T04_M4_D3_By_County.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\T04_M4_D3_support_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5CE9BE-45D0-40AF-84D9-00A47EB6B0C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE3C4B-D4DD-483F-B8DD-0FF9314C9D72}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{8D82E61D-3AE3-4CFF-A9C4-7C696EDAAD6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="230" r:id="rId2"/>
+    <pivotCache cacheId="25" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,32 +41,39 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="3">
+  <metadataStrings count="4">
     <s v="._GPSSQL SEIS732_Team_04_AS_Database SEIS732 Team 00 Star Schema"/>
     <s v="{[DEALER].[Dealer Geography].[DLR State].[MN]}"/>
     <s v="{[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]}"/>
+    <s v="{[PRODUCT].[PRD Make Name].&amp;[Behemoth]}"/>
   </metadataStrings>
-  <mdxMetadata count="2">
+  <mdxMetadata count="3">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
     <mdx n="0" f="s">
       <ms ns="2" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="3" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="3">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>RRV Handling Fees</t>
   </si>
@@ -113,16 +120,13 @@
     <t>Shark</t>
   </si>
   <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Simple</t>
-  </si>
-  <si>
     <t>Squirrel</t>
   </si>
   <si>
-    <t>Strange</t>
+    <t>PRD Make Name</t>
+  </si>
+  <si>
+    <t>Behemoth</t>
   </si>
 </sst>
 </file>
@@ -189,9 +193,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43223.860737037037" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43233.687316319447" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="52">
+  <cacheFields count="53">
     <cacheField name="[Measures].[RRV Handling Fees]" caption="RRV Handling Fees" numFmtId="0" hierarchy="182" level="32767"/>
     <cacheField name="[Measures].[RRV Processing Fees]" caption="RRV Processing Fees" numFmtId="0" hierarchy="181" level="32767"/>
     <cacheField name="[Measures].[RRV Actual Sales Amount In Dollars]" caption="RRV Actual Sales Amount In Dollars" numFmtId="0" hierarchy="180" level="32767"/>
@@ -355,18 +359,12 @@
         <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Shark]&amp;[MN]&amp;[U.S.A.]" c="Shark" cp="1">
           <x/>
         </s>
-        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Silver]&amp;[MN]&amp;[U.S.A.]" c="Silver" cp="1">
-          <x/>
-        </s>
-        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Simple]&amp;[MN]&amp;[U.S.A.]" c="Simple" cp="1">
-          <x/>
-        </s>
         <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Squirrel]&amp;[MN]&amp;[U.S.A.]" c="Squirrel" cp="1">
           <x/>
         </s>
-        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Strange]&amp;[MN]&amp;[U.S.A.]" c="Strange" cp="1">
-          <x/>
-        </s>
+        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Silver]&amp;[MN]&amp;[U.S.A.]" u="1" c="Silver"/>
+        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Simple]&amp;[MN]&amp;[U.S.A.]" u="1" c="Simple"/>
+        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Strange]&amp;[MN]&amp;[U.S.A.]" u="1" c="Strange"/>
       </sharedItems>
       <mpMap v="47"/>
     </cacheField>
@@ -396,6 +394,9 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[CUSTOMER].[Hierarchy].[Individual Customer].[CUST Zip]" caption="CUST Zip" propertyName="CUST Zip" numFmtId="0" hierarchy="2" level="5" memberPropertyField="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[PRODUCT].[PRD Make Name].[PRD Make Name]" caption="PRD Make Name" numFmtId="0" hierarchy="88" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -512,7 +513,12 @@
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color ID]" caption="PRD Color ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color ID].[All]" allUniqueName="[PRODUCT].[PRD Color ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color Name]" caption="PRD Color Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color Name].[All]" allUniqueName="[PRODUCT].[PRD Color Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Description]" caption="PRD Make Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Description].[All]" allUniqueName="[PRODUCT].[PRD Make Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="52"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price]" caption="PRD Manufacturer Suggested Retail Price" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" allUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD MMC ID]" caption="PRD MMC ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD MMC ID].[All]" allUniqueName="[PRODUCT].[PRD MMC ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Model Description]" caption="PRD Model Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Model Description].[All]" allUniqueName="[PRODUCT].[PRD Model Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
@@ -661,9 +667,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="230" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A5:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="52">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A5:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="53">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -749,9 +755,9 @@
         <item s="1" c="1" x="3"/>
         <item s="1" c="1" x="4"/>
         <item s="1" c="1" x="5"/>
-        <item s="1" c="1" x="6"/>
-        <item s="1" c="1" x="7"/>
-        <item s="1" c="1" x="8"/>
+        <item s="1" x="6"/>
+        <item s="1" x="7"/>
+        <item s="1" x="8"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
@@ -762,13 +768,14 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="3">
     <field x="41"/>
     <field x="42"/>
     <field x="43"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -793,15 +800,6 @@
     <i r="2">
       <x v="5"/>
     </i>
-    <i r="2">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -820,8 +818,9 @@
       <x v="2"/>
     </i>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="25" hier="16" name="[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]" cap="Independent"/>
+    <pageField fld="52" hier="88" name="[PRODUCT].[PRD Make Name].&amp;[Behemoth]" cap="Behemoth"/>
     <pageField fld="3" hier="3" name="[DEALER].[Dealer Geography].[DLR State].[MN]" cap="MN"/>
   </pageFields>
   <dataFields count="3">
@@ -1391,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DFE9E2-5B0A-45B3-B310-6EF68CBB55D7}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,12 +1404,20 @@
     <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s" vm="2">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s" vm="2">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" vm="3">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1456,13 +1463,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>2822.99</v>
+        <v>1129.1399999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>22823.170400000003</v>
+        <v>9129.08</v>
       </c>
       <c r="D8" s="1">
-        <v>1392062</v>
+        <v>656805</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1470,13 +1477,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>2257.79</v>
+        <v>564.09</v>
       </c>
       <c r="C9" s="1">
-        <v>18257.059999999998</v>
+        <v>4564.0897999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>1089508</v>
+        <v>331951</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1484,13 +1491,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>2257.87</v>
+        <v>1128.99</v>
       </c>
       <c r="C10" s="1">
-        <v>18259.049300000002</v>
+        <v>9129.4897000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>825210</v>
+        <v>340306</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1498,13 +1505,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>2258.79</v>
+        <v>1129.08</v>
       </c>
       <c r="C11" s="1">
-        <v>18258.939900000001</v>
+        <v>9129.1098999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>1108810</v>
+        <v>593105</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1512,13 +1519,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>1128.24</v>
+        <v>564.07000000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>9128.9297000000006</v>
+        <v>4564.1698999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>346603</v>
+        <v>248351</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1526,69 +1533,27 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>564.72</v>
+        <v>564.16</v>
       </c>
       <c r="C13" s="1">
-        <v>4564.6899000000003</v>
+        <v>4564.9502000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>385053</v>
+        <v>302152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
+      <c r="A14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>1129.0900000000001</v>
+        <v>5079.5300000000007</v>
       </c>
       <c r="C14" s="1">
-        <v>9128.0596000000005</v>
+        <v>41080.889500000005</v>
       </c>
       <c r="D14" s="1">
-        <v>500403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2257.63</v>
-      </c>
-      <c r="C15" s="1">
-        <v>18258.169900000001</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1079908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2257.98</v>
-      </c>
-      <c r="C16" s="1">
-        <v>18257.489800000003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1116908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16935.099999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>136935.55850000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7844465</v>
+        <v>2472670</v>
       </c>
     </row>
   </sheetData>

--- a/T04_M4_D3_support_files/T04_M4_D3_By_County.xlsx
+++ b/T04_M4_D3_support_files/T04_M4_D3_By_County.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\T04_M4_D3_support_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MS_SQL12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE3C4B-D4DD-483F-B8DD-0FF9314C9D72}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B5CE9BE-45D0-40AF-84D9-00A47EB6B0C6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{8D82E61D-3AE3-4CFF-A9C4-7C696EDAAD6C}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId2"/>
+    <pivotCache cacheId="230" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,39 +41,32 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="4">
+  <metadataStrings count="3">
     <s v="._GPSSQL SEIS732_Team_04_AS_Database SEIS732 Team 00 Star Schema"/>
     <s v="{[DEALER].[Dealer Geography].[DLR State].[MN]}"/>
     <s v="{[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]}"/>
-    <s v="{[PRODUCT].[PRD Make Name].&amp;[Behemoth]}"/>
   </metadataStrings>
-  <mdxMetadata count="3">
+  <mdxMetadata count="2">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
     <mdx n="0" f="s">
       <ms ns="2" c="0"/>
     </mdx>
-    <mdx n="0" f="s">
-      <ms ns="3" c="0"/>
-    </mdx>
   </mdxMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
     </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>RRV Handling Fees</t>
   </si>
@@ -120,13 +113,16 @@
     <t>Shark</t>
   </si>
   <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
     <t>Squirrel</t>
   </si>
   <si>
-    <t>PRD Make Name</t>
-  </si>
-  <si>
-    <t>Behemoth</t>
+    <t>Strange</t>
   </si>
 </sst>
 </file>
@@ -193,9 +189,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43233.687316319447" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Member1" refreshedDate="43223.860737037037" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7DB72074-285C-41B5-9452-D661B5CC9CFF}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="53">
+  <cacheFields count="52">
     <cacheField name="[Measures].[RRV Handling Fees]" caption="RRV Handling Fees" numFmtId="0" hierarchy="182" level="32767"/>
     <cacheField name="[Measures].[RRV Processing Fees]" caption="RRV Processing Fees" numFmtId="0" hierarchy="181" level="32767"/>
     <cacheField name="[Measures].[RRV Actual Sales Amount In Dollars]" caption="RRV Actual Sales Amount In Dollars" numFmtId="0" hierarchy="180" level="32767"/>
@@ -359,12 +355,18 @@
         <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Shark]&amp;[MN]&amp;[U.S.A.]" c="Shark" cp="1">
           <x/>
         </s>
+        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Silver]&amp;[MN]&amp;[U.S.A.]" c="Silver" cp="1">
+          <x/>
+        </s>
+        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Simple]&amp;[MN]&amp;[U.S.A.]" c="Simple" cp="1">
+          <x/>
+        </s>
         <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Squirrel]&amp;[MN]&amp;[U.S.A.]" c="Squirrel" cp="1">
           <x/>
         </s>
-        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Silver]&amp;[MN]&amp;[U.S.A.]" u="1" c="Silver"/>
-        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Simple]&amp;[MN]&amp;[U.S.A.]" u="1" c="Simple"/>
-        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Strange]&amp;[MN]&amp;[U.S.A.]" u="1" c="Strange"/>
+        <s v="[CUSTOMER].[Hierarchy].[CUST County].&amp;[Strange]&amp;[MN]&amp;[U.S.A.]" c="Strange" cp="1">
+          <x/>
+        </s>
       </sharedItems>
       <mpMap v="47"/>
     </cacheField>
@@ -394,9 +396,6 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[CUSTOMER].[Hierarchy].[Individual Customer].[CUST Zip]" caption="CUST Zip" propertyName="CUST Zip" numFmtId="0" hierarchy="2" level="5" memberPropertyField="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
-    </cacheField>
-    <cacheField name="[PRODUCT].[PRD Make Name].[PRD Make Name]" caption="PRD Make Name" numFmtId="0" hierarchy="88" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -513,12 +512,7 @@
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color ID]" caption="PRD Color ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color ID].[All]" allUniqueName="[PRODUCT].[PRD Color ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Color Name]" caption="PRD Color Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Color Name].[All]" allUniqueName="[PRODUCT].[PRD Color Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Description]" caption="PRD Make Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Description].[All]" allUniqueName="[PRODUCT].[PRD Make Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="52"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[PRODUCT].[PRD Make Name]" caption="PRD Make Name" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Make Name].[All]" allUniqueName="[PRODUCT].[PRD Make Name].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price]" caption="PRD Manufacturer Suggested Retail Price" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" allUniqueName="[PRODUCT].[PRD Manufacturer Suggested Retail Price].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD MMC ID]" caption="PRD MMC ID" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD MMC ID].[All]" allUniqueName="[PRODUCT].[PRD MMC ID].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[PRODUCT].[PRD Model Description]" caption="PRD Model Description" attribute="1" defaultMemberUniqueName="[PRODUCT].[PRD Model Description].[All]" allUniqueName="[PRODUCT].[PRD Model Description].[All]" dimensionUniqueName="[PRODUCT]" displayFolder="" count="0" unbalanced="0"/>
@@ -667,9 +661,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A5:D14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="53">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282A42F5-2001-463D-84F1-330E60359905}" name="PivotTable3" cacheId="230" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A5:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="52">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -755,9 +749,9 @@
         <item s="1" c="1" x="3"/>
         <item s="1" c="1" x="4"/>
         <item s="1" c="1" x="5"/>
-        <item s="1" x="6"/>
-        <item s="1" x="7"/>
-        <item s="1" x="8"/>
+        <item s="1" c="1" x="6"/>
+        <item s="1" c="1" x="7"/>
+        <item s="1" c="1" x="8"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0"/>
@@ -768,14 +762,13 @@
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
-    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="3">
     <field x="41"/>
     <field x="42"/>
     <field x="43"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
@@ -800,6 +793,15 @@
     <i r="2">
       <x v="5"/>
     </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -818,9 +820,8 @@
       <x v="2"/>
     </i>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="25" hier="16" name="[DEALER].[Independent_Or_Corporate].[DLR Independent Or Corporate].[Independent]" cap="Independent"/>
-    <pageField fld="52" hier="88" name="[PRODUCT].[PRD Make Name].&amp;[Behemoth]" cap="Behemoth"/>
     <pageField fld="3" hier="3" name="[DEALER].[Dealer Geography].[DLR State].[MN]" cap="MN"/>
   </pageFields>
   <dataFields count="3">
@@ -1390,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DFE9E2-5B0A-45B3-B310-6EF68CBB55D7}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1404,20 +1405,12 @@
     <col min="4" max="4" width="30.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s" vm="2">
-        <v>9</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s" vm="3">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" vm="2">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1463,13 +1456,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>1129.1399999999999</v>
+        <v>2822.99</v>
       </c>
       <c r="C8" s="1">
-        <v>9129.08</v>
+        <v>22823.170400000003</v>
       </c>
       <c r="D8" s="1">
-        <v>656805</v>
+        <v>1392062</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -1477,13 +1470,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>564.09</v>
+        <v>2257.79</v>
       </c>
       <c r="C9" s="1">
-        <v>4564.0897999999997</v>
+        <v>18257.059999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>331951</v>
+        <v>1089508</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -1491,13 +1484,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>1128.99</v>
+        <v>2257.87</v>
       </c>
       <c r="C10" s="1">
-        <v>9129.4897000000001</v>
+        <v>18259.049300000002</v>
       </c>
       <c r="D10" s="1">
-        <v>340306</v>
+        <v>825210</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1505,13 +1498,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>1129.08</v>
+        <v>2258.79</v>
       </c>
       <c r="C11" s="1">
-        <v>9129.1098999999995</v>
+        <v>18258.939900000001</v>
       </c>
       <c r="D11" s="1">
-        <v>593105</v>
+        <v>1108810</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -1519,13 +1512,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>564.07000000000005</v>
+        <v>1128.24</v>
       </c>
       <c r="C12" s="1">
-        <v>4564.1698999999999</v>
+        <v>9128.9297000000006</v>
       </c>
       <c r="D12" s="1">
-        <v>248351</v>
+        <v>346603</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1533,27 +1526,69 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>564.16</v>
+        <v>564.72</v>
       </c>
       <c r="C13" s="1">
-        <v>4564.9502000000002</v>
+        <v>4564.6899000000003</v>
       </c>
       <c r="D13" s="1">
-        <v>302152</v>
+        <v>385053</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1129.0900000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9128.0596000000005</v>
+      </c>
+      <c r="D14" s="1">
+        <v>500403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2257.63</v>
+      </c>
+      <c r="C15" s="1">
+        <v>18258.169900000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1079908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2257.98</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18257.489800000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1116908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
-        <v>5079.5300000000007</v>
-      </c>
-      <c r="C14" s="1">
-        <v>41080.889500000005</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2472670</v>
+      <c r="B17" s="1">
+        <v>16935.099999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>136935.55850000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7844465</v>
       </c>
     </row>
   </sheetData>
